--- a/image/measurereport.xlsx
+++ b/image/measurereport.xlsx
@@ -930,43 +930,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="178.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="178.828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="133.8359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.48046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="59.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="134.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="60.48046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/measurereport.xlsx
+++ b/image/measurereport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="248">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -517,10 +517,6 @@
   </si>
   <si>
     <t>MeasureReport.group.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -930,43 +926,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="178.828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="178.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="134.45703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="60.48046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="133.8359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.48046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="59.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3090,13 +3086,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3147,30 +3143,30 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3199,7 +3195,7 @@
         <v>92</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>94</v>
@@ -3252,7 +3248,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3270,16 +3266,16 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3301,10 +3297,10 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>94</v>
@@ -3359,7 +3355,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3382,7 +3378,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3408,10 +3404,10 @@
         <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3462,7 +3458,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3485,7 +3481,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3511,10 +3507,10 @@
         <v>156</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3565,7 +3561,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3588,7 +3584,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3611,13 +3607,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3668,30 +3664,30 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3720,7 +3716,7 @@
         <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>94</v>
@@ -3773,7 +3769,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3791,16 +3787,16 @@
         <v>38</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3822,10 +3818,10 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>94</v>
@@ -3880,7 +3876,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3903,7 +3899,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3929,10 +3925,10 @@
         <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3959,14 +3955,14 @@
         <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>38</v>
       </c>
@@ -3983,7 +3979,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4006,7 +4002,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4029,13 +4025,13 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4086,7 +4082,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4109,7 +4105,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4132,13 +4128,13 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4189,7 +4185,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4212,7 +4208,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4235,13 +4231,13 @@
         <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4292,7 +4288,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4315,7 +4311,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4341,10 +4337,10 @@
         <v>156</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4395,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4418,7 +4414,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4441,13 +4437,13 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4498,30 +4494,30 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4550,7 +4546,7 @@
         <v>92</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>94</v>
@@ -4603,7 +4599,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4621,16 +4617,16 @@
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4652,10 +4648,10 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>94</v>
@@ -4710,7 +4706,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4733,7 +4729,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4759,10 +4755,10 @@
         <v>149</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4813,7 +4809,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4836,7 +4832,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4862,10 +4858,10 @@
         <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4916,7 +4912,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -4939,7 +4935,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4962,13 +4958,13 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5019,30 +5015,30 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5071,7 +5067,7 @@
         <v>92</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>94</v>
@@ -5124,7 +5120,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5142,16 +5138,16 @@
         <v>38</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5173,10 +5169,10 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>94</v>
@@ -5231,7 +5227,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5254,7 +5250,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5280,10 +5276,10 @@
         <v>149</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5334,7 +5330,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5357,7 +5353,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5383,10 +5379,10 @@
         <v>156</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5437,7 +5433,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5460,7 +5456,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5483,13 +5479,13 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5540,30 +5536,30 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5592,7 +5588,7 @@
         <v>92</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>94</v>
@@ -5645,7 +5641,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5663,16 +5659,16 @@
         <v>38</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -5694,10 +5690,10 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>94</v>
@@ -5752,7 +5748,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -5775,7 +5771,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5801,10 +5797,10 @@
         <v>149</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5855,7 +5851,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>46</v>
@@ -5878,7 +5874,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5904,10 +5900,10 @@
         <v>149</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5958,7 +5954,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>46</v>
@@ -5981,7 +5977,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6007,10 +6003,10 @@
         <v>156</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6061,7 +6057,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6084,7 +6080,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6107,13 +6103,13 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6164,30 +6160,30 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6216,7 +6212,7 @@
         <v>92</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>94</v>
@@ -6269,7 +6265,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6287,16 +6283,16 @@
         <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6318,10 +6314,10 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>94</v>
@@ -6376,7 +6372,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6399,7 +6395,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6425,10 +6421,10 @@
         <v>149</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6455,14 +6451,14 @@
         <v>38</v>
       </c>
       <c r="W53" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X53" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="X53" t="s" s="2">
+      <c r="Y53" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>38</v>
       </c>
@@ -6479,7 +6475,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6502,7 +6498,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6525,13 +6521,13 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6582,7 +6578,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6605,7 +6601,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6628,13 +6624,13 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K55" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="L55" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6685,7 +6681,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -6708,7 +6704,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6731,13 +6727,13 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6788,7 +6784,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -6811,7 +6807,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6834,13 +6830,13 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6891,7 +6887,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
